--- a/DevOps Roadmap 2023 - TrainWithShubham.xlsx
+++ b/DevOps Roadmap 2023 - TrainWithShubham.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t xml:space="preserve">DevOps Roadmap 2023</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtube.com/playlist?list=PLlfy9GnSVerQr-Se9JRE_tZJk3OUoHCkh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress</t>
   </si>
   <si>
     <t xml:space="preserve">Python Basics and Data Structures</t>
@@ -327,6 +324,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -347,16 +345,19 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="15"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -364,6 +365,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -371,12 +373,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -427,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -448,32 +452,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -540,18 +548,18 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="59.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,615 +610,615 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" s="16" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="17" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="15" t="n">
         <v>45056</v>
       </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="15" t="n">
         <v>45057</v>
       </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="15" t="n">
         <v>44877</v>
       </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="15" t="n">
         <v>44907</v>
       </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" s="20" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" s="21" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" s="20" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" s="21" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" s="20" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" s="21" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" s="20" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" s="21" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" s="20" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" s="21" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" s="20" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" s="21" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" s="20" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" s="21" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" s="20" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" s="21" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="B21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" s="21" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" s="20" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" s="20" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" s="21" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="E23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="E24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" s="20" customFormat="true" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" s="21" customFormat="true" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" s="20" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" s="21" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="19"/>
+      <c r="G28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
